--- a/dataset/PCOS_Template.xlsx
+++ b/dataset/PCOS_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisJ\Desktop\PCOS-Diagnose-SVM-DT\PCOS-Diagnosing-SVM-DT\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascua\Documents\New folder (3)\PCOS-Diagnosing-SVM-DT\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB271F24-4566-4B52-B8C0-C8BAA1F1ED19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01D8BA1-F60F-4475-9F15-1775238B8A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6852CCE1-D7B4-48AA-9DF8-E3E598E7DB8A}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="15375" windowHeight="8325" xr2:uid="{6852CCE1-D7B4-48AA-9DF8-E3E598E7DB8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -264,13 +264,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -589,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A46F1CA-6E2D-45D9-A3CD-231C4EE18203}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AX5" sqref="AX5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -768,132 +765,132 @@
       </c>
     </row>
     <row r="2" spans="1:42" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>51</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="2">
+        <v>60</v>
+      </c>
+      <c r="B2" s="2">
         <v>23</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>68</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>172</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>42</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>34</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <f>(F2/E2)</f>
         <v>0.80952380952380953</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="2">
         <v>1</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="2">
         <v>1</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="2">
         <v>1</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="2">
         <v>1</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="2">
         <v>1</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="2">
         <v>0</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="2">
         <v>0</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="5">
         <v>23</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="2">
         <v>15</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="2">
         <v>72</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="2">
         <v>16</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="2">
         <v>10.8</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="2">
         <v>4</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="2">
         <v>10</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="2">
         <v>4</v>
       </c>
-      <c r="W2" s="4">
+      <c r="W2" s="2">
         <v>0</v>
       </c>
-      <c r="X2" s="4">
+      <c r="X2" s="2">
         <v>0</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="Y2" s="2">
         <v>77.599999999999994</v>
       </c>
-      <c r="Z2" s="4">
+      <c r="Z2" s="2">
         <v>1.99</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="AA2" s="2">
         <v>4.42</v>
       </c>
-      <c r="AB2" s="4">
+      <c r="AB2" s="2">
         <v>5.48</v>
       </c>
-      <c r="AC2" s="5">
+      <c r="AC2" s="4">
         <f>(AA2/AB2)</f>
         <v>0.80656934306569339</v>
       </c>
-      <c r="AD2" s="4">
+      <c r="AD2" s="2">
         <v>3.26</v>
       </c>
-      <c r="AE2" s="4">
+      <c r="AE2" s="2">
         <v>3.2</v>
       </c>
-      <c r="AF2" s="4">
+      <c r="AF2" s="2">
         <v>27.65</v>
       </c>
-      <c r="AG2" s="4">
+      <c r="AG2" s="2">
         <v>23.114000000000001</v>
       </c>
-      <c r="AH2" s="4">
+      <c r="AH2" s="2">
         <v>0.39</v>
       </c>
-      <c r="AI2" s="4">
+      <c r="AI2" s="2">
         <v>70</v>
       </c>
-      <c r="AJ2" s="4">
+      <c r="AJ2" s="2">
         <v>110</v>
       </c>
-      <c r="AK2" s="4">
+      <c r="AK2" s="2">
         <v>70</v>
       </c>
-      <c r="AL2" s="4">
+      <c r="AL2" s="2">
         <v>22</v>
       </c>
-      <c r="AM2" s="4">
+      <c r="AM2" s="2">
         <v>18</v>
       </c>
-      <c r="AN2" s="4">
+      <c r="AN2" s="2">
         <v>12</v>
       </c>
-      <c r="AO2" s="4">
+      <c r="AO2" s="2">
         <v>13</v>
       </c>
-      <c r="AP2" s="4">
+      <c r="AP2" s="2">
         <v>11</v>
       </c>
     </row>
